--- a/public/instructivo/Instructivo_Carga_Data_Postulantes_Pregrado.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Postulantes_Pregrado.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -257,12 +256,6 @@
 …</t>
   </si>
   <si>
-    <t>Indicador si hubo o no segunda opción en el proceso de postulación. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Código de Modalidad de Admisión, este código debe de extraerse de la tabla maestra de Modalidades de Admisión. Ejemplo:
 1: Examen Ordinario
 2: Examen Primeros Puestos
@@ -425,12 +418,6 @@
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna R, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el postulante sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna SUFRE DISCAPACIDAD:
 El código de Condición de Discapacidad no corresponde a los valores posibles de ser consignados. Consigne 1 para SI o 0 para NO. Corrija la Columna S, Fila n</t>
   </si>
@@ -601,6 +588,18 @@
   </si>
   <si>
     <t>Nota: Se deben de cumplir con estas consideraciones para cada fila de datos que se requiera registrar en la plantilla de datos. La cual debe de iniciar el primer registro en la fila N° 6 y continuar sin saltarse filas hasta el último registro que consigne</t>
+  </si>
+  <si>
+    <t>Indicador si hubo o no segunda opción en el proceso de postulación. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el postulante sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -860,10 +859,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1150,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,21 +1164,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>168</v>
+      <c r="B5" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>61</v>
@@ -1334,7 +1333,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>51</v>
@@ -1363,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>39</v>
@@ -1392,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>39</v>
@@ -1421,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>61</v>
@@ -1450,7 +1449,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>64</v>
@@ -1479,7 +1478,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>39</v>
@@ -1488,16 +1487,16 @@
         <v>41</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1508,25 +1507,25 @@
         <v>24</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="16">
         <v>65745985</v>
       </c>
       <c r="H18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1537,25 +1536,25 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="I19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1566,25 +1565,25 @@
         <v>26</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1595,22 +1594,22 @@
         <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="11"/>
     </row>
@@ -1622,25 +1621,25 @@
         <v>28</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1651,25 +1650,25 @@
         <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1680,25 +1679,25 @@
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="19">
         <v>34929</v>
       </c>
       <c r="H24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1709,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>39</v>
@@ -1718,16 +1717,16 @@
         <v>41</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="16">
         <v>2</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1738,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>61</v>
@@ -1753,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1767,25 +1766,25 @@
         <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="H27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="I27" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1796,25 +1795,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G28" s="16">
         <v>158</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1825,25 +1824,25 @@
         <v>4</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1854,25 +1853,25 @@
         <v>5</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1883,25 +1882,25 @@
         <v>6</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1912,25 +1911,25 @@
         <v>7</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1941,25 +1940,25 @@
         <v>8</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1970,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>39</v>
@@ -1979,16 +1978,16 @@
         <v>41</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G34" s="16">
         <v>1</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1999,25 +1998,25 @@
         <v>10</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2028,25 +2027,25 @@
         <v>11</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="H36" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2057,22 +2056,22 @@
         <v>12</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G37" s="14">
         <v>945625285</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I37" s="11"/>
     </row>
@@ -2084,20 +2083,20 @@
         <v>13</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I38" s="11"/>
     </row>
